--- a/biology/Botanique/Agonis/Agonis.xlsx
+++ b/biology/Botanique/Agonis/Agonis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Agonis, représentant de la famille des Myrtaceae, est formé de quatre espèces d'arbustes ou de petits arbres originaires des régions côtières du sud-est de l'Australie-Occidentale. Un seul — Agonis flexuosa — est un arbre, les autres sont de grands buissons.
 Généralement les Agonis ont une écorce fibreuse brune, des feuilles d'un vert terne et des inflorescences de petites fleurs blanches. Elles sont facilement identifiables par la puissante odeur de menthe poivrée que les feuilles dégagent lorsqu'elles sont malaxées.
@@ -512,7 +524,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Agonis baxteri
 Agonis flexuosa
